--- a/Blatt1/Weiser.xlsx
+++ b/Blatt1/Weiser.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programme\GitHub\Software-Engineering1\Blatt1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72EA2BCE-A387-4AE2-8CC2-D68125766F04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4E2E1E-05A6-42AA-BB92-86273D56A546}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F070251D-6D25-4B10-B4B7-D8992D0C325E}"/>
+    <workbookView minimized="1" xWindow="2580" yWindow="5160" windowWidth="21600" windowHeight="11385" xr2:uid="{F070251D-6D25-4B10-B4B7-D8992D0C325E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -622,7 +622,7 @@
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="A3" sqref="A3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
